--- a/loc_DailyAssign_cost.xlsx
+++ b/loc_DailyAssign_cost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CCcars_num</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>TotalCost</t>
-  </si>
-  <si>
-    <t>Taxi_prob</t>
   </si>
 </sst>
 </file>
@@ -395,258 +392,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>781504.4399999999</v>
+      </c>
+      <c r="E2">
+        <v>51626</v>
+      </c>
+      <c r="F2">
+        <v>833130.4399999999</v>
+      </c>
+      <c r="G2">
+        <v>833130.4399999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>54609.644</v>
-      </c>
-      <c r="F2">
-        <v>1935.219999999993</v>
-      </c>
-      <c r="G2">
-        <v>56544.86399999999</v>
-      </c>
-      <c r="H2">
-        <v>56544.86399999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>173700</v>
-      </c>
-      <c r="D3">
-        <v>14828.27896</v>
-      </c>
-      <c r="E3">
-        <v>30457.13600000001</v>
-      </c>
-      <c r="F3">
-        <v>-1.70530256582424e-12</v>
-      </c>
-      <c r="G3">
-        <v>45285.41495999999</v>
-      </c>
-      <c r="H3">
-        <v>218985.41496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>347400</v>
-      </c>
-      <c r="D4">
-        <v>20387.06736</v>
-      </c>
-      <c r="E4">
-        <v>17503.584</v>
-      </c>
-      <c r="F4">
-        <v>-2.273736754432321e-12</v>
-      </c>
-      <c r="G4">
-        <v>37890.65135999999</v>
-      </c>
-      <c r="H4">
-        <v>385290.65136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>521100</v>
-      </c>
-      <c r="D5">
-        <v>24447.92174</v>
-      </c>
-      <c r="E5">
-        <v>7435.35</v>
-      </c>
-      <c r="F5">
-        <v>-8.952838470577262e-12</v>
-      </c>
-      <c r="G5">
-        <v>31883.27173999999</v>
-      </c>
-      <c r="H5">
-        <v>552983.27174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>694800</v>
-      </c>
-      <c r="D6">
-        <v>26486.33614</v>
-      </c>
-      <c r="E6">
-        <v>2381.43</v>
-      </c>
-      <c r="F6">
-        <v>1.4210854715202e-12</v>
-      </c>
-      <c r="G6">
-        <v>28867.76614</v>
-      </c>
-      <c r="H6">
-        <v>723667.76614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>868500</v>
-      </c>
-      <c r="D7">
-        <v>27230.83462</v>
-      </c>
-      <c r="E7">
-        <v>535.566</v>
-      </c>
-      <c r="F7">
-        <v>1.723066134218243e-12</v>
-      </c>
-      <c r="G7">
-        <v>27766.40062</v>
-      </c>
-      <c r="H7">
-        <v>896266.40062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1042200</v>
-      </c>
-      <c r="D8">
-        <v>27446.84624</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>-9.094947017729282e-12</v>
-      </c>
-      <c r="G8">
-        <v>27446.84623999999</v>
-      </c>
-      <c r="H8">
-        <v>1069646.84624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
       <c r="B9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1215900</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>27446.84624</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>27446.84624</v>
-      </c>
-      <c r="H9">
-        <v>1243346.84624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1389600</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>27446.84624</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -655,10 +625,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27446.84624</v>
-      </c>
-      <c r="H10">
-        <v>1417046.84624</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
